--- a/OutputData/Lassa/01_09/Lassa_chord3_table.xlsx
+++ b/OutputData/Lassa/01_09/Lassa_chord3_table.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -510,7 +510,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -539,7 +539,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -568,7 +568,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2019 - 2023</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -597,7 +597,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2019 - 2023</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -626,7 +626,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -655,7 +655,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -684,7 +684,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -767,7 +767,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -796,7 +796,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -825,7 +825,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -854,7 +854,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1999 - 2003</t>
+          <t>1987 - 2004</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -883,7 +883,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2004 - 2008</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -912,7 +912,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2019 - 2023</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -941,7 +941,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -970,7 +970,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -999,7 +999,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2004 - 2008</t>
+          <t>1987 - 2004</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2019 - 2023</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2004 - 2008</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2019 - 2023</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2019 - 2023</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2019 - 2023</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1979 - 1983</t>
+          <t>1969 - 1986</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1974 - 1978</t>
+          <t>1969 - 1986</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1979 - 1983</t>
+          <t>1969 - 1986</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1974 - 1978</t>
+          <t>1969 - 1986</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2004 - 2008</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2019 - 2023</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1919,7 +1919,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1994 - 1998</t>
+          <t>1987 - 2004</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1979 - 1983</t>
+          <t>1969 - 1986</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2064,7 +2064,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2004 - 2008</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1974 - 1978</t>
+          <t>1969 - 1986</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1974 - 1978</t>
+          <t>1969 - 1986</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1979 - 1983</t>
+          <t>1969 - 1986</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1989 - 1993</t>
+          <t>1987 - 2004</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2004 - 2008</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1999 - 2003</t>
+          <t>1987 - 2004</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2004 - 2008</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -2582,7 +2582,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -2698,7 +2698,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2004 - 2008</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -2785,7 +2785,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1969 - 1973</t>
+          <t>1969 - 1986</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1979 - 1983</t>
+          <t>1969 - 1986</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2004 - 2008</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2004 - 2008</t>
+          <t>1987 - 2004</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2004 - 2008</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -3067,7 +3067,7 @@
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2005 - 2022</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1979 - 1983</t>
+          <t>1969 - 1986</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -3159,7 +3159,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1969 - 1973</t>
+          <t>1969 - 1986</t>
         </is>
       </c>
       <c r="E96" t="n">
